--- a/static/spreadsheet_template/note_export.xlsx
+++ b/static/spreadsheet_template/note_export.xlsx
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -458,6 +458,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -523,16 +529,22 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -779,10 +791,11 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -795,10 +808,11 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -811,7 +825,7 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -824,7 +838,7 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -837,7 +851,7 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -850,7 +864,7 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -863,7 +877,7 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -906,1785 +920,1799 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="10" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="10" t="s">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W12" s="8"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="5"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="7"/>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="11" t="s">
+      <c r="O13" s="7"/>
+      <c r="P13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y13" s="5"/>
+      <c r="Y13" s="7"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="7"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="5"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="5"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="5"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="7"/>
     </row>
     <row r="18">
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="5"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="7"/>
     </row>
     <row r="19">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="5"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="7"/>
     </row>
     <row r="20">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="5"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="7"/>
     </row>
     <row r="21">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="5"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="7"/>
     </row>
     <row r="22">
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="5"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="7"/>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="5"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="7"/>
     </row>
     <row r="24">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="5"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="5"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="5"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="7"/>
     </row>
     <row r="27">
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="5"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="7"/>
     </row>
     <row r="28">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="5"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="7"/>
     </row>
     <row r="29">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="5"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="7"/>
     </row>
     <row r="30">
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="5"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="7"/>
     </row>
     <row r="31">
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="5"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="7"/>
     </row>
     <row r="32">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="5"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="7"/>
     </row>
     <row r="33">
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="5"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="7"/>
     </row>
     <row r="34">
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="5"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="7"/>
     </row>
     <row r="35">
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="5"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="7"/>
     </row>
     <row r="36">
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="5"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="7"/>
     </row>
     <row r="37">
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="5"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="5"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="5"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="7"/>
     </row>
     <row r="40">
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="5"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="7"/>
     </row>
     <row r="41">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="5"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="7"/>
     </row>
     <row r="42">
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="5"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="7"/>
     </row>
     <row r="43">
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="5"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="5"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="7"/>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="5"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="7"/>
     </row>
     <row r="46">
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="5"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="7"/>
     </row>
     <row r="47">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="5"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="7"/>
     </row>
     <row r="48">
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="18"/>
-      <c r="Y48" s="5"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="7"/>
     </row>
     <row r="49">
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="22"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="24"/>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="22"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="24"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="10" t="s">
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="10" t="s">
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="W51" s="8"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="22"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="24"/>
     </row>
     <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="11" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O52" s="22"/>
-      <c r="P52" s="11" t="s">
+      <c r="O52" s="24"/>
+      <c r="P52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S52" s="11" t="s">
+      <c r="S52" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T52" s="11" t="s">
+      <c r="T52" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U52" s="11" t="s">
+      <c r="U52" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V52" s="11" t="s">
+      <c r="V52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W52" s="11" t="s">
+      <c r="W52" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="X52" s="11" t="s">
+      <c r="X52" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y52" s="22"/>
+      <c r="Y52" s="24"/>
     </row>
     <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="22"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="24"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="10" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="22"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="24"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="13" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="22"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="24"/>
     </row>
     <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="30" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="32"/>
-      <c r="Y56" s="22"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="24"/>
     </row>
     <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="30" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="32"/>
-      <c r="Y57" s="22"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="24"/>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="30" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="32"/>
-      <c r="Y58" s="22"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="24"/>
     </row>
     <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="30" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="32"/>
-      <c r="Y59" s="22"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="24"/>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="30" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="32"/>
-      <c r="Y60" s="22"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="24"/>
     </row>
     <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="30" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="32"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="32"/>
-      <c r="Y61" s="22"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="24"/>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="30" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="32"/>
-      <c r="Y62" s="22"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="24"/>
     </row>
     <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="30" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="32"/>
-      <c r="Y63" s="22"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="24"/>
     </row>
     <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="30" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="32"/>
-      <c r="Y64" s="22"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="24"/>
     </row>
     <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="30" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="32"/>
-      <c r="Y65" s="22"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="36"/>
+      <c r="Y65" s="24"/>
     </row>
     <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="30" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="32"/>
-      <c r="Y66" s="22"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="24"/>
     </row>
     <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="30" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="32"/>
-      <c r="Y67" s="22"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="24"/>
     </row>
     <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="30" t="s">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="32"/>
-      <c r="Y68" s="22"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="24"/>
     </row>
     <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="30" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="32"/>
-      <c r="Y69" s="22"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="24"/>
     </row>
     <row r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
     </row>
     <row r="71">
-      <c r="E71" s="18"/>
-      <c r="G71" s="18"/>
+      <c r="E71" s="20"/>
+      <c r="G71" s="20"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="18"/>
+      <c r="I71" s="20"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="18"/>
+      <c r="K71" s="20"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="18"/>
+      <c r="M71" s="20"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="18"/>
-      <c r="Y71" s="18"/>
+      <c r="O71" s="20"/>
+      <c r="Y71" s="20"/>
     </row>
     <row r="72">
-      <c r="E72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="E72" s="20"/>
+      <c r="G72" s="20"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="18"/>
+      <c r="I72" s="20"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="18"/>
+      <c r="K72" s="20"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="18"/>
+      <c r="M72" s="20"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="18"/>
-      <c r="Y72" s="18"/>
+      <c r="O72" s="20"/>
+      <c r="Y72" s="20"/>
     </row>
     <row r="74">
       <c r="G74" s="2"/>
@@ -2695,7 +2723,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
-      <c r="O74" s="18"/>
+      <c r="O74" s="20"/>
     </row>
     <row r="75">
       <c r="G75" s="2"/>
@@ -2706,7 +2734,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="18"/>
+      <c r="O75" s="20"/>
     </row>
     <row r="76">
       <c r="G76" s="2"/>
@@ -12020,30 +12048,35 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="G51:N51"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="G52:G55"/>
     <mergeCell ref="D54:F54"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="G51:N51"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="W52:W55"/>
-    <mergeCell ref="V52:V55"/>
-    <mergeCell ref="V13:V16"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="P12:U12"/>
     <mergeCell ref="V12:X12"/>
-    <mergeCell ref="T52:T55"/>
-    <mergeCell ref="U52:U55"/>
-    <mergeCell ref="X52:X55"/>
-    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="P13:P16"/>
     <mergeCell ref="Q13:Q16"/>
@@ -12051,7 +12084,6 @@
     <mergeCell ref="S13:S16"/>
     <mergeCell ref="T13:T16"/>
     <mergeCell ref="U13:U16"/>
-    <mergeCell ref="P12:U12"/>
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="I13:I16"/>
@@ -12059,33 +12091,29 @@
     <mergeCell ref="K13:K16"/>
     <mergeCell ref="L13:L16"/>
     <mergeCell ref="M13:M16"/>
-    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="P52:P55"/>
     <mergeCell ref="Q52:Q55"/>
     <mergeCell ref="R52:R55"/>
     <mergeCell ref="S52:S55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V52:V55"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="V13:V16"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="T52:T55"/>
+    <mergeCell ref="U52:U55"/>
+    <mergeCell ref="W52:W55"/>
+    <mergeCell ref="X52:X55"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
